--- a/demo_data/comparative_ct/Freja/platemap.xlsx
+++ b/demo_data/comparative_ct/Freja/platemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelflower/Library/Mobile Documents/com~apple~CloudDocs/Documents/bin/qpcr/demo_data/Freja/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelflower/Library/Mobile Documents/com~apple~CloudDocs/Documents/bin/qpcr/demo_data/comparative_ct/Freja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DF01A2-A6F9-CE46-AA50-14E433A4921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2F4557-7C8F-4346-9935-30A18AE6CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{E79B646E-35F4-7A44-8202-EB71272D6F46}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22540" windowHeight="15640" xr2:uid="{E79B646E-35F4-7A44-8202-EB71272D6F46}"/>
   </bookViews>
   <sheets>
     <sheet name="platemap" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="141">
   <si>
     <t>filename</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>calibrator</t>
+  </si>
+  <si>
+    <t>calibrator_group</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -826,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58BF460-7590-7E46-A5E4-4D8D5F7E821B}">
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,10 +847,11 @@
     <col min="5" max="6" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,11 +888,14 @@
       <c r="L1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -923,12 +933,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H2,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H2,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H2,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H2,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N2" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H2,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H2,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -966,12 +980,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H3,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H3,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H3,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H3,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N3" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H3,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H3,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -1009,12 +1027,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H4,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H4,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H4,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H4,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N4" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H4,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H4,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -1056,8 +1078,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H5,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H5,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H5,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H5,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1099,8 +1125,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H6,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H6,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H6,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H6,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -1138,12 +1168,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H7,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H7,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H7,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H7,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N7" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H7,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H7,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -1181,12 +1215,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H8,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H8,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H8,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H8,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N8" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H8,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H8,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -1224,12 +1262,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H9,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H9,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H9,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H9,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N9" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H9,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H9,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -1271,8 +1313,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H10,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H10,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H10,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H10,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1314,8 +1360,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H11,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H11,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H11,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H11,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -1354,8 +1404,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H12,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H12,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H12,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H12,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -1394,8 +1448,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H13,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H13,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H13,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H13,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -1435,10 +1493,14 @@
       </c>
       <c r="M14" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H14,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H14,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N14" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H14,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H14,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -1478,10 +1540,14 @@
       </c>
       <c r="M15" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H15,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H15,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N15" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H15,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H15,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -1521,10 +1587,14 @@
       </c>
       <c r="M16" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H16,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H16,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N16" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H16,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H16,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -1566,8 +1636,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H17,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H17,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H17,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H17,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -1609,8 +1683,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H18,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H18,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H18,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H18,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -1650,10 +1728,14 @@
       </c>
       <c r="M19" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H19,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H19,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N19" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H19,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H19,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -1693,10 +1775,14 @@
       </c>
       <c r="M20" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H20,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H20,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N20" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H20,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H20,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -1736,10 +1822,14 @@
       </c>
       <c r="M21" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H21,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H21,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N21" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H21,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H21,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -1781,8 +1871,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H22,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H22,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H22,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H22,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -1824,8 +1918,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H23,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H23,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H23,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H23,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -1864,8 +1962,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H24,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H24,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H24,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H24,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -1904,8 +2006,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H25,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H25,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H25,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H25,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -1945,10 +2051,14 @@
       </c>
       <c r="M26" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H26,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H26,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N26" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H26,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H26,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -1988,10 +2098,14 @@
       </c>
       <c r="M27" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H27,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H27,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N27" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H27,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H27,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -2031,10 +2145,14 @@
       </c>
       <c r="M28" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H28,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H28,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N28" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H28,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H28,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -2076,8 +2194,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H29,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H29,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H29,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H29,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -2119,8 +2241,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H30,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H30,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H30,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H30,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -2160,10 +2286,14 @@
       </c>
       <c r="M31" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H31,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H31,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N31" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H31,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H31,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -2203,10 +2333,14 @@
       </c>
       <c r="M32" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H32,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H32,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N32" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H32,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H32,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -2246,10 +2380,14 @@
       </c>
       <c r="M33" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H33,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H33,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N33" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H33,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H33,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -2291,8 +2429,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H34,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H34,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H34,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H34,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -2334,8 +2476,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H35,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H35,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H35,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H35,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>122</v>
       </c>
@@ -2374,8 +2520,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H36,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H36,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H36,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H36,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -2414,8 +2564,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H37,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H37,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H37,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H37,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -2453,12 +2607,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H38,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H38,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H38,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H38,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N38" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H38,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H38,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -2496,12 +2654,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H39,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H39,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H39,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H39,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N39" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H39,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H39,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -2539,12 +2701,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H40,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H40,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H40,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H40,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N40" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H40,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H40,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -2583,8 +2749,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H41,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H41,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H41,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H41,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -2623,8 +2793,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H42,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H42,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H42,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H42,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -2662,12 +2836,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H43,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H43,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H43,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H43,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N43" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H43,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H43,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -2705,12 +2883,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H44,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H44,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H44,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H44,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N44" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H44,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H44,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -2748,12 +2930,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H45,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H45,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H45,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H45,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N45" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H45,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H45,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -2792,8 +2978,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H46,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H46,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H46,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H46,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -2832,8 +3022,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H47,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H47,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H47,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H47,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -2872,8 +3066,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H48,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H48,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H48,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H48,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -2912,8 +3110,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H49,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H49,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H49,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H49,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -2953,10 +3155,14 @@
       </c>
       <c r="M50" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H50,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H50,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N50" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H50,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H50,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -2996,10 +3202,14 @@
       </c>
       <c r="M51" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H51,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H51,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N51" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H51,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H51,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -3039,10 +3249,14 @@
       </c>
       <c r="M52" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H52,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H52,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N52" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H52,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H52,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -3081,8 +3295,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H53,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H53,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H53,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H53,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -3121,8 +3339,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H54,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H54,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H54,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H54,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -3162,10 +3384,14 @@
       </c>
       <c r="M55" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H55,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H55,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N55" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H55,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H55,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>122</v>
       </c>
@@ -3205,10 +3431,14 @@
       </c>
       <c r="M56" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H56,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H56,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N56" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H56,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H56,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -3248,10 +3478,14 @@
       </c>
       <c r="M57" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H57,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H57,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N57" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H57,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H57,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -3290,8 +3524,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H58,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H58,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H58,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H58,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -3330,8 +3568,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H59,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H59,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H59,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H59,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -3370,8 +3612,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H60,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H60,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H60,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H60,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -3410,8 +3656,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H61,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H61,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H61,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H61,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -3451,10 +3701,14 @@
       </c>
       <c r="M62" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H62,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H62,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N62" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H62,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H62,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -3494,10 +3748,14 @@
       </c>
       <c r="M63" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H63,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H63,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N63" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H63,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H63,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -3537,10 +3795,14 @@
       </c>
       <c r="M64" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H64,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H64,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N64" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H64,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H64,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -3579,8 +3841,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H65,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H65,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H65,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H65,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -3619,8 +3885,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H66,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H66,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H66,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H66,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -3660,10 +3930,14 @@
       </c>
       <c r="M67" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H67,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H67,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N67" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H67,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H67,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -3703,10 +3977,14 @@
       </c>
       <c r="M68" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H68,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H68,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N68" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H68,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H68,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -3746,10 +4024,14 @@
       </c>
       <c r="M69" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H69,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H69,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N69" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H69,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H69,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -3788,8 +4070,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H70,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H70,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H70,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H70,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -3828,8 +4114,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H71,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H71,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H71,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H71,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -3868,8 +4158,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H72,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H72,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H72,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H72,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -3908,8 +4202,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H73,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H73,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H73,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H73,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -3948,8 +4246,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H74,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H74,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H74,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H74,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -3988,8 +4290,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H75,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H75,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H75,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H75,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -4028,8 +4334,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H76,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H76,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H76,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H76,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -4068,8 +4378,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H77,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H77,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H77,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H77,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>122</v>
       </c>
@@ -4108,8 +4422,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H78,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H78,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H78,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H78,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>122</v>
       </c>
@@ -4148,8 +4466,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H79,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H79,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H79,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H79,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -4188,8 +4510,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H80,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H80,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H80,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H80,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>122</v>
       </c>
@@ -4228,8 +4554,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H81,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H81,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H81,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H81,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>122</v>
       </c>
@@ -4268,8 +4598,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H82,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H82,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H82,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H82,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>122</v>
       </c>
@@ -4308,8 +4642,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H83,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H83,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H83,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H83,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>122</v>
       </c>
@@ -4348,8 +4686,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H84,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H84,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H84,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H84,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>122</v>
       </c>
@@ -4388,8 +4730,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H85,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H85,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H85,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H85,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>122</v>
       </c>
@@ -4428,8 +4774,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H86,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H86,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H86,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H86,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -4468,8 +4818,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H87,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H87,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H87,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H87,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>122</v>
       </c>
@@ -4508,8 +4862,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H88,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H88,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H88,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H88,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -4548,8 +4906,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H89,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H89,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H89,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H89,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>122</v>
       </c>
@@ -4588,8 +4950,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H90,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H90,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H90,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H90,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>122</v>
       </c>
@@ -4628,8 +4994,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H91,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H91,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H91,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H91,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>122</v>
       </c>
@@ -4668,8 +5038,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H92,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H92,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H92,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H92,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -4708,8 +5082,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H93,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H93,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H93,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H93,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -4748,8 +5126,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H94,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H94,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H94,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H94,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -4788,8 +5170,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H95,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H95,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H95,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H95,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -4828,8 +5214,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H96,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H96,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H96,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H96,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -4868,8 +5258,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H97,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H97,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H97,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H97,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -4904,12 +5298,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H98,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H98,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M98" s="3">
+      <c r="M98" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H98,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H98,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N98" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H98,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H98,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -4944,12 +5342,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H99,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H99,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M99" s="3">
+      <c r="M99" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H99,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H99,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N99" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H99,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H99,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>127</v>
       </c>
@@ -4984,12 +5386,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H100,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H100,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H100,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H100,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N100" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H100,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H100,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -5028,8 +5434,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H101,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H101,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H101,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H101,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -5068,8 +5478,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H102,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H102,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H102,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H102,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -5105,8 +5519,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H103,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H103,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H103,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H103,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>127</v>
       </c>
@@ -5142,8 +5560,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H104,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H104,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H104,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H104,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -5179,8 +5601,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H105,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H105,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H105,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H105,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -5216,8 +5642,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H106,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H106,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H106,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H106,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>127</v>
       </c>
@@ -5253,8 +5683,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H107,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H107,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H107,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H107,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -5290,8 +5724,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H108,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H108,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H108,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H108,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -5327,8 +5765,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H109,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H109,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H109,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H109,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -5365,10 +5807,14 @@
       </c>
       <c r="M110" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H110,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H110,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N110" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H110,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H110,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -5405,10 +5851,14 @@
       </c>
       <c r="M111" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H111,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H111,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N111" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H111,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H111,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -5445,10 +5895,14 @@
       </c>
       <c r="M112" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H112,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H112,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N112" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H112,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H112,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -5487,8 +5941,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H113,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H113,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H113,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H113,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5527,8 +5985,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H114,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H114,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H114,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H114,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -5564,8 +6026,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H115,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H115,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H115,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H115,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -5601,8 +6067,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H116,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H116,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H116,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H116,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -5638,8 +6108,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H117,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H117,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H117,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H117,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -5675,8 +6149,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H118,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H118,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H118,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H118,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -5712,8 +6190,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H119,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H119,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H119,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H119,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>127</v>
       </c>
@@ -5749,8 +6231,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H120,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H120,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H120,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H120,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -5786,8 +6272,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H121,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H121,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H121,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H121,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -5824,10 +6314,14 @@
       </c>
       <c r="M122" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H122,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H122,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N122" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H122,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H122,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -5864,10 +6358,14 @@
       </c>
       <c r="M123" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H123,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H123,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N123" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H123,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H123,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -5904,10 +6402,14 @@
       </c>
       <c r="M124" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H124,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H124,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N124" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H124,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H124,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -5946,8 +6448,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H125,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H125,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H125,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H125,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -5986,8 +6492,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H126,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H126,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H126,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H126,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -6023,8 +6533,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H127,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H127,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H127,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H127,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6060,8 +6574,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H128,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H128,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H128,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H128,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -6097,8 +6615,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H129,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H129,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H129,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H129,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -6134,8 +6656,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H130,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H130,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H130,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H130,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>127</v>
       </c>
@@ -6171,8 +6697,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H131,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H131,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H131,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H131,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -6208,8 +6738,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H132,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H132,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H132,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H132,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -6245,8 +6779,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H133,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H133,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H133,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H133,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -6281,12 +6819,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H134,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H134,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M134" s="3">
+      <c r="M134" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H134,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H134,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N134" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H134,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H134,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -6321,12 +6863,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H135,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H135,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M135" s="3">
+      <c r="M135" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H135,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H135,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N135" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H135,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H135,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>127</v>
       </c>
@@ -6361,12 +6907,16 @@
         <f>IFERROR(IF(LEN(INDEX(samples!E:E,MATCH(platemap!$H136,samples!$A:$A,0)))=0,"",INDEX(samples!E:E,MATCH(platemap!$H136,samples!$A:$A,0))),"")</f>
         <v>None</v>
       </c>
-      <c r="M136" s="3">
+      <c r="M136" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H136,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H136,samples!$A:$A,0))),"")</f>
+        <v>all</v>
+      </c>
+      <c r="N136" s="3">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H136,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H136,samples!$A:$A,0))),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>127</v>
       </c>
@@ -6402,8 +6952,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H137,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H137,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H137,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H137,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -6439,8 +6993,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H138,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H138,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H138,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H138,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -6476,8 +7034,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H139,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H139,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H139,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H139,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>127</v>
       </c>
@@ -6513,8 +7075,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H140,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H140,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H140,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H140,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -6550,8 +7116,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H141,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H141,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H141,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H141,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>127</v>
       </c>
@@ -6587,8 +7157,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H142,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H142,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H142,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H142,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -6624,8 +7198,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H143,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H143,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H143,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H143,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>127</v>
       </c>
@@ -6661,8 +7239,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H144,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H144,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H144,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H144,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -6698,8 +7280,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H145,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H145,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H145,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H145,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>127</v>
       </c>
@@ -6736,10 +7322,14 @@
       </c>
       <c r="M146" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H146,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H146,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N146" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H146,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H146,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>127</v>
       </c>
@@ -6776,10 +7366,14 @@
       </c>
       <c r="M147" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H147,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H147,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N147" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H147,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H147,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>127</v>
       </c>
@@ -6816,10 +7410,14 @@
       </c>
       <c r="M148" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H148,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H148,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N148" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H148,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H148,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>127</v>
       </c>
@@ -6855,8 +7453,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H149,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H149,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H149,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H149,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>127</v>
       </c>
@@ -6892,8 +7494,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H150,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H150,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H150,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H150,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>127</v>
       </c>
@@ -6929,8 +7535,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H151,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H151,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H151,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H151,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>127</v>
       </c>
@@ -6966,8 +7576,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H152,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H152,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H152,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H152,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>127</v>
       </c>
@@ -7003,8 +7617,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H153,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H153,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H153,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H153,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>127</v>
       </c>
@@ -7040,8 +7658,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H154,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H154,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H154,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H154,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>127</v>
       </c>
@@ -7077,8 +7699,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H155,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H155,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H155,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H155,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>127</v>
       </c>
@@ -7114,8 +7740,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H156,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H156,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H156,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H156,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>127</v>
       </c>
@@ -7151,8 +7781,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H157,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H157,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H157,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H157,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>127</v>
       </c>
@@ -7189,10 +7823,14 @@
       </c>
       <c r="M158" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H158,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H158,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N158" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H158,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H158,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>127</v>
       </c>
@@ -7229,10 +7867,14 @@
       </c>
       <c r="M159" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H159,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H159,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N159" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H159,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H159,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>127</v>
       </c>
@@ -7269,10 +7911,14 @@
       </c>
       <c r="M160" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H160,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H160,samples!$A:$A,0))),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+        <v>all</v>
+      </c>
+      <c r="N160" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H160,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H160,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>127</v>
       </c>
@@ -7308,8 +7954,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H161,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H161,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H161,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H161,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>127</v>
       </c>
@@ -7345,8 +7995,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H162,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H162,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H162,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H162,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>127</v>
       </c>
@@ -7382,8 +8036,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H163,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H163,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H163,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H163,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>127</v>
       </c>
@@ -7419,8 +8077,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H164,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H164,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H164,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H164,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>127</v>
       </c>
@@ -7456,8 +8118,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H165,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H165,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H165,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H165,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>127</v>
       </c>
@@ -7493,8 +8159,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H166,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H166,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H166,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H166,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>127</v>
       </c>
@@ -7530,8 +8200,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H167,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H167,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H167,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H167,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>127</v>
       </c>
@@ -7567,8 +8241,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H168,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H168,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H168,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H168,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>127</v>
       </c>
@@ -7604,8 +8282,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H169,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H169,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H169,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H169,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>127</v>
       </c>
@@ -7641,8 +8323,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H170,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H170,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H170,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H170,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>127</v>
       </c>
@@ -7678,8 +8364,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H171,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H171,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H171,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H171,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>127</v>
       </c>
@@ -7715,8 +8405,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H172,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H172,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H172,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H172,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>127</v>
       </c>
@@ -7752,8 +8446,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H173,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H173,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H173,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H173,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>127</v>
       </c>
@@ -7789,8 +8487,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H174,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H174,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H174,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H174,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>127</v>
       </c>
@@ -7826,8 +8528,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H175,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H175,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H175,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H175,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -7863,8 +8569,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H176,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H176,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H176,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H176,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>127</v>
       </c>
@@ -7900,8 +8610,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H177,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H177,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H177,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H177,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>127</v>
       </c>
@@ -7937,8 +8651,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H178,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H178,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H178,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H178,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>127</v>
       </c>
@@ -7974,8 +8692,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H179,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H179,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H179,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H179,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>127</v>
       </c>
@@ -8011,8 +8733,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H180,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H180,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H180,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H180,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>127</v>
       </c>
@@ -8048,8 +8774,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H181,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H181,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H181,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H181,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -8085,8 +8815,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H182,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H182,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H182,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H182,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>127</v>
       </c>
@@ -8122,8 +8856,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H183,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H183,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H183,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H183,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>127</v>
       </c>
@@ -8159,8 +8897,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H184,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H184,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H184,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H184,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>127</v>
       </c>
@@ -8196,8 +8938,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H185,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H185,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H185,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H185,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>127</v>
       </c>
@@ -8233,8 +8979,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H186,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H186,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H186,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H186,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>127</v>
       </c>
@@ -8270,8 +9020,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H187,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H187,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H187,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H187,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>127</v>
       </c>
@@ -8307,8 +9061,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H188,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H188,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H188,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H188,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>127</v>
       </c>
@@ -8344,8 +9102,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H189,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H189,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H189,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H189,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>127</v>
       </c>
@@ -8381,8 +9143,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H190,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H190,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H190,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H190,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>127</v>
       </c>
@@ -8418,8 +9184,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H191,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H191,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H191,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H191,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>127</v>
       </c>
@@ -8455,8 +9225,12 @@
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H192,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H192,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H192,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H192,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>127</v>
       </c>
@@ -8490,6 +9264,10 @@
       </c>
       <c r="M193" s="3" t="str">
         <f>IFERROR(IF(LEN(INDEX(samples!F:F,MATCH(platemap!$H193,samples!$A:$A,0)))=0,"",INDEX(samples!F:F,MATCH(platemap!$H193,samples!$A:$A,0))),"")</f>
+        <v/>
+      </c>
+      <c r="N193" s="3" t="str">
+        <f>IFERROR(IF(LEN(INDEX(samples!G:G,MATCH(platemap!$H193,samples!$A:$A,0)))=0,"",INDEX(samples!G:G,MATCH(platemap!$H193,samples!$A:$A,0))),"")</f>
         <v/>
       </c>
     </row>
@@ -8501,20 +9279,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8906D84-4D1E-2A47-8C40-F4B9D219CB0C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8530,11 +9309,14 @@
       <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -8550,11 +9332,14 @@
       <c r="E2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -8570,8 +9355,11 @@
       <c r="E3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -8587,8 +9375,11 @@
       <c r="E4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -8604,11 +9395,14 @@
       <c r="E5" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -8624,8 +9418,11 @@
       <c r="E6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -8641,8 +9438,11 @@
       <c r="E7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -8650,7 +9450,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
